--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gdf2-Acvr1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H2">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.37962732035915</v>
+        <v>4.695610666666666</v>
       </c>
       <c r="N2">
-        <v>3.37962732035915</v>
+        <v>14.086832</v>
       </c>
       <c r="O2">
-        <v>0.1382505171538699</v>
+        <v>0.1802066564018305</v>
       </c>
       <c r="P2">
-        <v>0.1382505171538699</v>
+        <v>0.1802066564018305</v>
       </c>
       <c r="Q2">
-        <v>3.917655132388029</v>
+        <v>5.823397740975999</v>
       </c>
       <c r="R2">
-        <v>3.917655132388029</v>
+        <v>52.410579668784</v>
       </c>
       <c r="S2">
-        <v>0.1382505171538699</v>
+        <v>0.1802066564018305</v>
       </c>
       <c r="T2">
-        <v>0.1382505171538699</v>
+        <v>0.1802066564018305</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H3">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.3026797696485</v>
+        <v>15.51448033333333</v>
       </c>
       <c r="N3">
-        <v>15.3026797696485</v>
+        <v>46.543441</v>
       </c>
       <c r="O3">
-        <v>0.6259871848145506</v>
+        <v>0.5954098039960916</v>
       </c>
       <c r="P3">
-        <v>0.6259871848145506</v>
+        <v>0.5954098039960916</v>
       </c>
       <c r="Q3">
-        <v>17.73882628350957</v>
+        <v>19.240732705313</v>
       </c>
       <c r="R3">
-        <v>17.73882628350957</v>
+        <v>173.166594347817</v>
       </c>
       <c r="S3">
-        <v>0.6259871848145506</v>
+        <v>0.5954098039960916</v>
       </c>
       <c r="T3">
-        <v>0.6259871848145506</v>
+        <v>0.5954098039960916</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15919737918668</v>
+        <v>1.240179</v>
       </c>
       <c r="H4">
-        <v>1.15919737918668</v>
+        <v>3.720537</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.76336870155338</v>
+        <v>5.846719333333333</v>
       </c>
       <c r="N4">
-        <v>5.76336870155338</v>
+        <v>17.540158</v>
       </c>
       <c r="O4">
-        <v>0.2357622980315795</v>
+        <v>0.2243835396020779</v>
       </c>
       <c r="P4">
-        <v>0.2357622980315795</v>
+        <v>0.2243835396020779</v>
       </c>
       <c r="Q4">
-        <v>6.680881894127217</v>
+        <v>7.250978536093998</v>
       </c>
       <c r="R4">
-        <v>6.680881894127217</v>
+        <v>65.25880682484599</v>
       </c>
       <c r="S4">
-        <v>0.2357622980315795</v>
+        <v>0.2243835396020779</v>
       </c>
       <c r="T4">
-        <v>0.2357622980315795</v>
+        <v>0.2243835396020779</v>
       </c>
     </row>
   </sheetData>
